--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="151">
   <si>
     <t>土地全落</t>
   </si>
@@ -369,6 +369,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台灣卜蜂企業股份有限公 司</t>
   </si>
   <si>
@@ -385,6 +394,9 @@
   </si>
   <si>
     <t>瑞儀光電股份有限公司</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -2265,13 +2277,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
@@ -2290,13 +2302,22 @@
       <c r="G1" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>63</v>
@@ -2313,13 +2334,22 @@
       <c r="G2" s="2">
         <v>75080</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>63</v>
@@ -2336,13 +2366,22 @@
       <c r="G3" s="2">
         <v>45840</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>63</v>
@@ -2359,13 +2398,22 @@
       <c r="G4" s="2">
         <v>58490</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -2382,13 +2430,22 @@
       <c r="G5" s="2">
         <v>157600</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -2405,13 +2462,22 @@
       <c r="G6" s="2">
         <v>3310</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
@@ -2427,6 +2493,15 @@
       </c>
       <c r="G7" s="2">
         <v>300000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -2444,13 +2519,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2458,10 +2533,10 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
@@ -2472,10 +2547,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>63</v>
@@ -2486,10 +2561,10 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>63</v>
@@ -2513,19 +2588,19 @@
         <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2533,22 +2608,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2">
         <v>5700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2556,22 +2631,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2589,22 +2664,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2615,19 +2690,19 @@
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="153">
   <si>
     <t>土地全落</t>
   </si>
@@ -369,6 +369,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -378,7 +381,7 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>台灣卜蜂企業股份有限公 司</t>
+    <t>台灣卜蜂企業股份有限公司</t>
   </si>
   <si>
     <t>統一</t>
@@ -387,13 +390,16 @@
     <t>中國信託</t>
   </si>
   <si>
-    <t>同泰電子科技股份有限公 司</t>
-  </si>
-  <si>
-    <t>上福全球科技股份有限公 司</t>
+    <t>同泰電子科技股份有限公司</t>
+  </si>
+  <si>
+    <t>上福全球科技股份有限公司</t>
   </si>
   <si>
     <t>瑞儀光電股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-30</t>
@@ -2277,13 +2283,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
@@ -2311,13 +2317,16 @@
       <c r="J1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>63</v>
@@ -2335,21 +2344,24 @@
         <v>75080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="2">
+        <v>127</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2">
         <v>1380</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>63</v>
@@ -2367,21 +2379,24 @@
         <v>45840</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="2">
+        <v>127</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2">
         <v>1380</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>63</v>
@@ -2399,21 +2414,24 @@
         <v>58490</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="2">
+        <v>127</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="2">
         <v>1380</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -2431,21 +2449,24 @@
         <v>157600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="2">
+        <v>127</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="2">
         <v>1380</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -2463,21 +2484,24 @@
         <v>3310</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2">
+        <v>127</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2">
         <v>1380</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
@@ -2495,12 +2519,15 @@
         <v>300000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="2">
+        <v>127</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="2">
         <v>1380</v>
       </c>
     </row>
@@ -2519,13 +2546,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2533,10 +2560,10 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
@@ -2547,10 +2574,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>63</v>
@@ -2561,10 +2588,10 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>63</v>
@@ -2588,19 +2615,19 @@
         <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2608,22 +2635,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>5700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2631,22 +2658,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2664,22 +2691,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2690,19 +2717,19 @@
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="158">
   <si>
     <t>土地全落</t>
   </si>
@@ -372,6 +372,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -381,6 +384,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台灣卜蜂企業股份有限公司</t>
   </si>
   <si>
@@ -402,7 +411,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpf6571</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -2283,13 +2298,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
@@ -2320,13 +2335,22 @@
       <c r="K1" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>63</v>
@@ -2344,24 +2368,33 @@
         <v>75080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="2">
+        <v>131</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2">
         <v>1380</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>63</v>
@@ -2379,24 +2412,33 @@
         <v>45840</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="2">
+        <v>131</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="2">
         <v>1380</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>63</v>
@@ -2414,24 +2456,33 @@
         <v>58490</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="2">
+        <v>131</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="2">
         <v>1380</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -2449,24 +2500,33 @@
         <v>157600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="2">
+        <v>131</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="2">
         <v>1380</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -2484,24 +2544,33 @@
         <v>3310</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="2">
+        <v>131</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="2">
         <v>1380</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
@@ -2519,16 +2588,25 @@
         <v>300000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="2">
+        <v>131</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="2">
         <v>1380</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2546,13 +2624,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2560,10 +2638,10 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
@@ -2574,10 +2652,10 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>63</v>
@@ -2588,10 +2666,10 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>63</v>
@@ -2615,19 +2693,19 @@
         <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2635,22 +2713,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2">
         <v>5700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2658,22 +2736,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2691,22 +2769,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2717,19 +2795,19 @@
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -19,156 +19,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="158">
-  <si>
-    <t>土地全落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區北勢坑段六路厝 小段0123-0002地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區順安段0333-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區順安段0333-0004 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區順安段0333-0005 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區順安段0333-0006 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣安段0476-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣安段0477-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣安段0479-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區民安段0395-0010 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣安段0447-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣安段0475-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣安段0481 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0587-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0598-0010 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0598-0015 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0598-0018 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0598-0019 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0598-0020 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0605-0004 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0606-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0606-0002 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0606-0003 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0607-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 ◦608-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0654-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區竹林段竹林小段 0655-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊園北段 0107-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊圜北段 0111-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊圜北段 0112-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊圜北段 0113-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊園北段 0115-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊圜北段 0116-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊園北段 0123-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊圜北段 0114-0000 地號</t>
-  </si>
-  <si>
-    <t>建 物標示</t>
-  </si>
-  <si>
-    <t>臺中市西屯區民安段00448-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區廣安段00061 -000 建號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="151">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區北勢坑段六路厝小段01230002地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區順安段03330000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區順安段03330004地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區順安段03330005地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區順安段03330006地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣安段04760000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣安段04770000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣安段04790000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區民安段03950010地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣安段04470000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣安段04750000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣安段04810000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段05870000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段05980010地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段05980014地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段05980015地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段05980018地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段05980019地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段05980020地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段06050004地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段06060001地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段06060002地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段06060003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段06070000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段◦6080000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段06540000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區竹林段竹林小段06550000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊園北段01070000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊圜北段01110000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊圜北段01120000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊圜北段01130000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊園北段01150000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊圜北段01160000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊園北段01230000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊圜北段01140000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區民安段00448000建號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區廣安段00061000建號</t>
   </si>
   <si>
     <t>臺中市西屯區</t>
   </si>
   <si>
-    <t>面積（平方 公尺 ）</t>
-  </si>
-  <si>
     <t>2分之1</t>
   </si>
   <si>
-    <t>2616分之 725</t>
-  </si>
-  <si>
-    <t>2616分之 766</t>
+    <t>2616分之725</t>
+  </si>
+  <si>
+    <t>2616分之766</t>
   </si>
   <si>
     <t>14分之1</t>
@@ -180,28 +195,25 @@
     <t>全部</t>
   </si>
   <si>
-    <t>5400分之 45</t>
+    <t>5400分之45</t>
   </si>
   <si>
     <t>4分之1</t>
   </si>
   <si>
-    <t>10000分之 998</t>
-  </si>
-  <si>
-    <t>400000 分 之51810</t>
-  </si>
-  <si>
-    <t>281800 分 之125688</t>
-  </si>
-  <si>
-    <t>300000 分 之 86163</t>
-  </si>
-  <si>
-    <t>577960 分 之 24747</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
+    <t>10000分之998</t>
+  </si>
+  <si>
+    <t>400000分之51810</t>
+  </si>
+  <si>
+    <t>281800分之125688</t>
+  </si>
+  <si>
+    <t>300000分之86163</t>
+  </si>
+  <si>
+    <t>577960分之24747</t>
   </si>
   <si>
     <t>3分之1</t>
@@ -216,52 +228,46 @@
     <t>蔡錦陸</t>
   </si>
   <si>
-    <t>94年09月 28闩</t>
-  </si>
-  <si>
-    <t>77年05月 17闩</t>
-  </si>
-  <si>
-    <t>84年05月 11曰</t>
-  </si>
-  <si>
-    <t>84年07月 06日</t>
-  </si>
-  <si>
-    <t>94年07月 26日</t>
-  </si>
-  <si>
-    <t>94年07月 26 R</t>
-  </si>
-  <si>
-    <t>78年02月 23日</t>
-  </si>
-  <si>
-    <t>99年11月 11曰</t>
-  </si>
-  <si>
-    <t>100 年 05 月31曰</t>
-  </si>
-  <si>
-    <t>100 年 05 月3i a</t>
-  </si>
-  <si>
-    <t>100 年 05</t>
-  </si>
-  <si>
-    <t>80年09月 16曰</t>
-  </si>
-  <si>
-    <t>80年09月 16日</t>
-  </si>
-  <si>
-    <t>登記（取 得）時間</t>
-  </si>
-  <si>
-    <t>77年10月 28闩</t>
-  </si>
-  <si>
-    <t>100 年 07 月05闩</t>
+    <t>94年09月28闩</t>
+  </si>
+  <si>
+    <t>77年05月17闩</t>
+  </si>
+  <si>
+    <t>84年05月11曰</t>
+  </si>
+  <si>
+    <t>84年07月06日</t>
+  </si>
+  <si>
+    <t>94年07月26日</t>
+  </si>
+  <si>
+    <t>94年07月26R</t>
+  </si>
+  <si>
+    <t>78年02月23日</t>
+  </si>
+  <si>
+    <t>99年11月11曰</t>
+  </si>
+  <si>
+    <t>100年05月31曰</t>
+  </si>
+  <si>
+    <t>100年05月3ia</t>
+  </si>
+  <si>
+    <t>80年09月16曰</t>
+  </si>
+  <si>
+    <t>80年09月16日</t>
+  </si>
+  <si>
+    <t>77年10月28曰</t>
+  </si>
+  <si>
+    <t>100年07月05曰</t>
   </si>
   <si>
     <t>買賣</t>
@@ -270,19 +276,28 @@
     <t>繼承</t>
   </si>
   <si>
-    <t>登記（取 得）原因</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
     <t>(超堝石年)</t>
   </si>
   <si>
-    <t>1,892，358</t>
-  </si>
-  <si>
-    <t>18’591，200</t>
+    <t>1892358</t>
+  </si>
+  <si>
+    <t>18591200</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpf6571</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -327,7 +342,7 @@
     <t>三信商業銀行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行西屯分 行</t>
+    <t>國泰世華商業銀行西屯分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -348,13 +363,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>2，902</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>2902</t>
   </si>
   <si>
     <t>quantity</t>
@@ -369,27 +378,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台灣卜蜂企業股份有限公司</t>
   </si>
   <si>
@@ -411,15 +399,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpf6571</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -459,16 +438,16 @@
     <t>抵押借款</t>
   </si>
   <si>
-    <t>合作金庫中港分行 臺中市西屯區文心路</t>
-  </si>
-  <si>
-    <t>台中市第二信用合作社南屯 分社 臺中市南屯區五權西路</t>
-  </si>
-  <si>
-    <t>97年11月 25日</t>
-  </si>
-  <si>
-    <t>98年11月 29日</t>
+    <t>合作金庫中港分行臺中市西屯區文心路</t>
+  </si>
+  <si>
+    <t>台中市第二信用合作社南屯分社臺中市南屯區五權西路</t>
+  </si>
+  <si>
+    <t>97年11月25日</t>
+  </si>
+  <si>
+    <t>98年11月29日</t>
   </si>
   <si>
     <t>投資人</t>
@@ -489,7 +468,7 @@
     <t>臺中市西屯路3段166號</t>
   </si>
   <si>
-    <t>77年04月 24 H</t>
+    <t>77年04月24H</t>
   </si>
   <si>
     <t>投資</t>
@@ -851,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,1045 +858,1859 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>48.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2095.72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>87.96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>435.14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>23.38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>35.32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>244.35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>64.02</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>139.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>3520.49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2">
         <v>205359</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>5779.6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2">
         <v>2889803</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>542.29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2">
         <v>271145</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>1806</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2">
         <v>3250800</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>9963</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2">
         <v>16937100</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>5252</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2">
         <v>8928400</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>2760</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="2">
         <v>4692000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>431.13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" s="2">
         <v>732921</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>4526</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="2">
         <v>7694200</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>6922</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" s="2">
         <v>11767400</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>1051.31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>282.75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H22" s="2">
         <v>508950</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>5180.25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H23" s="2">
         <v>8806425</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>63.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" s="2">
         <v>107950</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O24" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>1343</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2">
         <v>2283100</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>10936</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>4602</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2">
         <v>7823400</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>1256.85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H28" s="2">
         <v>2136645</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O28" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>947.66</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O29" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>13347.61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>59.46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>402.02</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>3.16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O33" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>205.02</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O34" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <v>846.08</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O35" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2">
         <v>247.42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H36" s="2">
         <v>2889803</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O36" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <v>262.99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O37" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2">
+        <v>309.6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O38" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2">
-        <v>309.6</v>
+        <v>66.07</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="2">
+        <v>79266</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O39" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
         <v>52</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1">
-        <v>55</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="2">
-        <v>66.07</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H40" s="2">
-        <v>79266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1">
-        <v>56</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2">
-        <v>97</v>
-      </c>
-      <c r="D41" s="2" t="s">
+        <v>53200</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O40" s="2">
         <v>52</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="2">
-        <v>53200</v>
       </c>
     </row>
   </sheetData>
@@ -1935,60 +2728,60 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1997,19 +2790,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2018,19 +2811,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2039,19 +2832,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2060,19 +2853,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2081,19 +2874,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2102,19 +2895,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2123,19 +2916,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2">
         <v>71286</v>
@@ -2146,19 +2939,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2167,19 +2960,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2188,19 +2981,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2209,19 +3002,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2230,19 +3023,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -2251,19 +3044,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2272,19 +3065,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2306,54 +3099,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2">
         <v>7508</v>
@@ -2362,42 +3155,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2">
         <v>75080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L2" s="2">
         <v>1380</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="N2" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2">
         <v>4584</v>
@@ -2406,42 +3199,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2">
         <v>45840</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2">
         <v>1380</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2">
         <v>5849</v>
@@ -2450,42 +3243,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2">
         <v>58490</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2">
         <v>1380</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>15760</v>
@@ -2494,42 +3287,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2">
         <v>157600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L5" s="2">
         <v>1380</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="N5" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>331</v>
@@ -2538,42 +3331,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2">
         <v>3310</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L6" s="2">
         <v>1380</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2">
         <v>30000</v>
@@ -2582,31 +3375,31 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2">
         <v>300000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2">
         <v>1380</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2624,55 +3417,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2690,68 +3483,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2">
         <v>5700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2769,45 +3562,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市沙鹿區北勢坑段六路厝小段01230002地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市西屯區順安段03330000地號</t>
@@ -177,9 +180,6 @@
     <t>臺中市西屯區</t>
   </si>
   <si>
-    <t>2分之1</t>
-  </si>
-  <si>
     <t>2616分之725</t>
   </si>
   <si>
@@ -228,9 +228,6 @@
     <t>蔡錦陸</t>
   </si>
   <si>
-    <t>94年09月28闩</t>
-  </si>
-  <si>
     <t>77年05月17闩</t>
   </si>
   <si>
@@ -300,27 +297,18 @@
     <t>tmpf6571</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>2902</t>
+  </si>
+  <si>
     <t>臺灣新光商業銀行</t>
   </si>
   <si>
@@ -345,9 +333,6 @@
     <t>國泰世華商業銀行西屯分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
@@ -357,15 +342,9 @@
     <t>綜合存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>2902</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -375,12 +354,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台灣卜蜂企業股份有限公司</t>
-  </si>
-  <si>
     <t>統一</t>
   </si>
   <si>
@@ -399,15 +372,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
@@ -420,46 +384,19 @@
     <t>新世紀遞延年金</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押借款</t>
   </si>
   <si>
     <t>合作金庫中港分行臺中市西屯區文心路</t>
   </si>
   <si>
+    <t>97年11月25日</t>
+  </si>
+  <si>
     <t>台中市第二信用合作社南屯分社臺中市南屯區五權西路</t>
   </si>
   <si>
-    <t>97年11月25日</t>
-  </si>
-  <si>
     <t>98年11月29日</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>聯內實業股份有限公司</t>
@@ -830,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,19 +816,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>48.5</v>
+        <v>2095.72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>66</v>
@@ -900,19 +843,19 @@
         <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>66</v>
@@ -921,24 +864,30 @@
         <v>1380</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.277140672782875</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>580.809250764526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2095.72</v>
+        <v>87.96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>66</v>
@@ -947,19 +896,19 @@
         <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>66</v>
@@ -968,24 +917,30 @@
         <v>1380</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.292813455657492</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.755871559633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>87.96</v>
+        <v>435.14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>66</v>
@@ -994,19 +949,19 @@
         <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>66</v>
@@ -1015,45 +970,51 @@
         <v>1380</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.277140672782875</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>120.59499235474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>435.14</v>
+        <v>23.38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>66</v>
@@ -1062,45 +1023,51 @@
         <v>1380</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.292813455657492</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6.84597859327217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>23.38</v>
+        <v>35.32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>66</v>
@@ -1109,24 +1076,30 @@
         <v>1380</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2.52285714285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>35.32</v>
+        <v>244.35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>67</v>
@@ -1135,19 +1108,19 @@
         <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>66</v>
@@ -1156,45 +1129,51 @@
         <v>1380</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>40.725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>244.35</v>
+        <v>64.02</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>66</v>
@@ -1203,45 +1182,51 @@
         <v>1380</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.57285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>64.02</v>
+        <v>139.53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>66</v>
@@ -1250,24 +1235,30 @@
         <v>1380</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>139.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>139.53</v>
+        <v>3520.49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>66</v>
@@ -1276,19 +1267,19 @@
         <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="H10" s="2">
+        <v>205359</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>66</v>
@@ -1297,45 +1288,51 @@
         <v>1380</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.00833333333333333</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>29.3374166666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>3520.49</v>
+        <v>5779.6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2">
-        <v>205359</v>
+        <v>2889803</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>66</v>
@@ -1344,21 +1341,27 @@
         <v>1380</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>412.828571428571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>5779.6</v>
+        <v>542.29</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>55</v>
@@ -1367,22 +1370,22 @@
         <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2">
-        <v>2889803</v>
+        <v>271145</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>66</v>
@@ -1391,24 +1394,30 @@
         <v>1380</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>38.735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>542.29</v>
+        <v>1806</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>66</v>
@@ -1420,16 +1429,16 @@
         <v>83</v>
       </c>
       <c r="H13" s="2">
-        <v>271145</v>
+        <v>3250800</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>66</v>
@@ -1438,24 +1447,30 @@
         <v>1380</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>1806</v>
+        <v>9963</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>66</v>
@@ -1464,19 +1479,19 @@
         <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="2">
-        <v>3250800</v>
+        <v>16937100</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>66</v>
@@ -1485,21 +1500,27 @@
         <v>1380</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>9963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>9963</v>
+        <v>5252</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>57</v>
@@ -1508,22 +1529,22 @@
         <v>66</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2">
-        <v>16937100</v>
+        <v>8928400</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>66</v>
@@ -1532,21 +1553,27 @@
         <v>1380</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>5252</v>
+        <v>2760</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>57</v>
@@ -1555,22 +1582,22 @@
         <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2">
-        <v>8928400</v>
+        <v>4692000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>66</v>
@@ -1579,92 +1606,104 @@
         <v>1380</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>2760</v>
+        <v>431.13</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="2">
+        <v>732921</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0998</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>43.026774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4526</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="2">
-        <v>4692000</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2">
-        <v>431.13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="2">
-        <v>732921</v>
+        <v>7694200</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>66</v>
@@ -1673,21 +1712,27 @@
         <v>1380</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>4526</v>
+        <v>6922</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>57</v>
@@ -1696,22 +1741,22 @@
         <v>66</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="2">
-        <v>7694200</v>
+        <v>11767400</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>66</v>
@@ -1720,45 +1765,51 @@
         <v>1380</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O19" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>6922</v>
+        <v>1051.31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="2">
-        <v>11767400</v>
+        <v>83</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>66</v>
@@ -1767,45 +1818,51 @@
         <v>1380</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O20" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.129525</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>136.17092775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>1051.31</v>
+        <v>282.75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="H21" s="2">
+        <v>508950</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>66</v>
@@ -1814,21 +1871,27 @@
         <v>1380</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O21" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>70.6875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>282.75</v>
+        <v>5180.25</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>59</v>
@@ -1837,22 +1900,22 @@
         <v>66</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="2">
-        <v>508950</v>
+        <v>8806425</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>66</v>
@@ -1861,21 +1924,27 @@
         <v>1380</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O22" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1295.0625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>5180.25</v>
+        <v>63.5</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>59</v>
@@ -1884,22 +1953,22 @@
         <v>66</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2">
-        <v>8806425</v>
+        <v>107950</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>66</v>
@@ -1908,45 +1977,51 @@
         <v>1380</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O23" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>15.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>63.5</v>
+        <v>1343</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="2">
-        <v>107950</v>
+        <v>2283100</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>66</v>
@@ -1955,21 +2030,27 @@
         <v>1380</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O24" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>1343</v>
+        <v>10936</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>57</v>
@@ -1978,22 +2059,22 @@
         <v>66</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2283100</v>
+        <v>83</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>66</v>
@@ -2002,139 +2083,157 @@
         <v>1380</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O25" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>10936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>10936</v>
+        <v>4602</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7823400</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="2">
+        <v>39</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1256.85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2136645</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="2">
+        <v>40</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.446018452803407</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>560.578292405962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2">
+        <v>947.66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O26" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>39</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4602</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="2">
-        <v>7823400</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1256.85</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="2">
-        <v>2136645</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>66</v>
@@ -2143,21 +2242,27 @@
         <v>1380</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.28721</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>272.1774286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>947.66</v>
+        <v>13347.61</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>63</v>
@@ -2169,19 +2274,19 @@
         <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>66</v>
@@ -2190,21 +2295,27 @@
         <v>1380</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.28721</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>3833.5670681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>13347.61</v>
+        <v>59.46</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>63</v>
@@ -2213,22 +2324,22 @@
         <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>66</v>
@@ -2237,21 +2348,27 @@
         <v>1380</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.28721</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>17.0775066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>59.46</v>
+        <v>402.02</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>63</v>
@@ -2260,22 +2377,22 @@
         <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>66</v>
@@ -2284,21 +2401,27 @@
         <v>1380</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.28721</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>115.4641642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>402.02</v>
+        <v>3.16</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>63</v>
@@ -2307,22 +2430,22 @@
         <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>66</v>
@@ -2331,21 +2454,27 @@
         <v>1380</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O32" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.28721</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.9075836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>3.16</v>
+        <v>205.02</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>63</v>
@@ -2354,22 +2483,22 @@
         <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>66</v>
@@ -2378,21 +2507,27 @@
         <v>1380</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O33" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>46</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.28721</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>58.8837942</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2">
-        <v>205.02</v>
+        <v>846.08</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>63</v>
@@ -2401,22 +2536,22 @@
         <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>66</v>
@@ -2425,92 +2560,104 @@
         <v>1380</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O34" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>47</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.28721</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>243.0026368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2">
-        <v>846.08</v>
+        <v>247.42</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2889803</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O35" s="2">
+        <v>48</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.0428178420651948</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>10.5939904837705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>49</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2">
+        <v>262.99</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O35" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1">
-        <v>48</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="2">
-        <v>247.42</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E36" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2889803</v>
+        <v>82</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>66</v>
@@ -2519,24 +2666,30 @@
         <v>1380</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O36" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>49</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.28721</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>75.5333579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2">
-        <v>262.99</v>
+        <v>309.6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>66</v>
@@ -2545,19 +2698,19 @@
         <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>66</v>
@@ -2566,92 +2719,104 @@
         <v>1380</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O37" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>50</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>309.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2">
-        <v>309.6</v>
+        <v>66.07</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="2">
+        <v>79266</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" s="2">
+        <v>51</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>22.0233333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2">
+        <v>97</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O38" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>51</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="2">
-        <v>66.07</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H39" s="2">
-        <v>79266</v>
+        <v>53200</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>66</v>
@@ -2660,57 +2825,16 @@
         <v>1380</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1">
         <v>52</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
         <v>97</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="2">
-        <v>53200</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O40" s="2">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2844,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2728,359 +2852,336 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>114</v>
+      <c r="G2" s="2">
+        <v>68223</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>68223</v>
+        <v>119713</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>119713</v>
+        <v>1424799</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1424799</v>
+        <v>6448795</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>6448795</v>
+        <v>434959</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>434959</v>
+        <v>19131</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>19131</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="F9" s="2">
+        <v>71286</v>
+      </c>
       <c r="G9" s="2">
-        <v>5367</v>
+        <v>2091673.81</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="2">
-        <v>71286</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>2091673.81</v>
+        <v>1045488</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>1045488</v>
+        <v>135782</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>135782</v>
+        <v>221620</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>221620</v>
+        <v>352631</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>352631</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>89</v>
+        <v>56424</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>56424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
         <v>292997</v>
       </c>
     </row>
@@ -3091,7 +3192,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3105,16 +3206,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3140,34 +3241,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="2">
-        <v>7508</v>
+        <v>4584</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2">
-        <v>75080</v>
+        <v>45840</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>66</v>
@@ -3176,42 +3277,42 @@
         <v>1380</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="2">
-        <v>4584</v>
+        <v>5849</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2">
-        <v>45840</v>
+        <v>58490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>66</v>
@@ -3220,42 +3321,42 @@
         <v>1380</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2">
-        <v>5849</v>
+        <v>15760</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G4" s="2">
-        <v>58490</v>
+        <v>157600</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>66</v>
@@ -3264,42 +3365,42 @@
         <v>1380</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="2">
-        <v>15760</v>
+        <v>331</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2">
-        <v>157600</v>
+        <v>3310</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>66</v>
@@ -3308,42 +3409,42 @@
         <v>1380</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="2">
-        <v>331</v>
+        <v>30000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2">
-        <v>3310</v>
+        <v>300000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>66</v>
@@ -3352,53 +3453,9 @@
         <v>1380</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>104</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="2">
-        <v>300000</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1380</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="2">
         <v>104</v>
       </c>
     </row>
@@ -3409,7 +3466,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3417,24 +3474,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>67</v>
@@ -3442,29 +3499,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>130</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3474,85 +3517,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>140</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5700000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>141</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3562,45 +3526,78 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5700000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="2">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1">
         <v>3000000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>150</v>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="134">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市沙鹿區北勢坑段六路厝小段01230002地號</t>
+  </si>
+  <si>
     <t>臺中市西屯區順安段03330000地號</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>臺中市西屯區</t>
   </si>
   <si>
+    <t>2分之1</t>
+  </si>
+  <si>
     <t>2616分之725</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
     <t>蔡錦陸</t>
   </si>
   <si>
+    <t>94年09月28闩</t>
+  </si>
+  <si>
     <t>77年05月17闩</t>
   </si>
   <si>
@@ -352,6 +361,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台灣卜蜂企業股份有限公司</t>
   </si>
   <si>
     <t>統一</t>
@@ -767,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,2015 +837,2068 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2095.72</v>
+        <v>48.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" s="2">
         <v>1380</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.277140672782875</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>580.809250764526</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>87.96</v>
+        <v>2095.72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M3" s="2">
         <v>1380</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.292813455657492</v>
+        <v>0.277140672782875</v>
       </c>
       <c r="Q3" s="2">
-        <v>25.755871559633</v>
+        <v>580.809250764526</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>435.14</v>
+        <v>87.96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" s="2">
         <v>1380</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.277140672782875</v>
+        <v>0.292813455657492</v>
       </c>
       <c r="Q4" s="2">
-        <v>120.59499235474</v>
+        <v>25.755871559633</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>23.38</v>
+        <v>435.14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M5" s="2">
         <v>1380</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.292813455657492</v>
+        <v>0.277140672782875</v>
       </c>
       <c r="Q5" s="2">
-        <v>6.84597859327217</v>
+        <v>120.59499235474</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>35.32</v>
+        <v>23.38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6" s="2">
         <v>1380</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0714285714285714</v>
+        <v>0.292813455657492</v>
       </c>
       <c r="Q6" s="2">
-        <v>2.52285714285714</v>
+        <v>6.84597859327217</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>244.35</v>
+        <v>35.32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M7" s="2">
         <v>1380</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.166666666666667</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Q7" s="2">
-        <v>40.725</v>
+        <v>2.52285714285714</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>64.02</v>
+        <v>244.35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M8" s="2">
         <v>1380</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0714285714285714</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.57285714285714</v>
+        <v>40.725</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>139.53</v>
+        <v>64.02</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M9" s="2">
         <v>1380</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Q9" s="2">
-        <v>139.53</v>
+        <v>4.57285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>3520.49</v>
+        <v>139.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="2">
-        <v>205359</v>
+        <v>85</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M10" s="2">
         <v>1380</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.00833333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>29.3374166666667</v>
+        <v>139.53</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>5779.6</v>
+        <v>3520.49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" s="2">
-        <v>2889803</v>
+        <v>205359</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" s="2">
         <v>1380</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0714285714285714</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="Q11" s="2">
-        <v>412.828571428571</v>
+        <v>29.3374166666667</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>542.29</v>
+        <v>5779.6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2">
-        <v>271145</v>
+        <v>2889803</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M12" s="2">
         <v>1380</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.0714285714285714</v>
       </c>
       <c r="Q12" s="2">
-        <v>38.735</v>
+        <v>412.828571428571</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1806</v>
+        <v>542.29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2">
-        <v>3250800</v>
+        <v>271145</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M13" s="2">
         <v>1380</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.25</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Q13" s="2">
-        <v>451.5</v>
+        <v>38.735</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>9963</v>
+        <v>1806</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2">
-        <v>16937100</v>
+        <v>3250800</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M14" s="2">
         <v>1380</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q14" s="2">
-        <v>9963</v>
+        <v>451.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>5252</v>
+        <v>9963</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H15" s="2">
-        <v>8928400</v>
+        <v>16937100</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M15" s="2">
         <v>1380</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>5252</v>
+        <v>9963</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>2760</v>
+        <v>5252</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2">
-        <v>4692000</v>
+        <v>8928400</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M16" s="2">
         <v>1380</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <v>2760</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>431.13</v>
+        <v>2760</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H17" s="2">
-        <v>732921</v>
+        <v>4692000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M17" s="2">
         <v>1380</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
-        <v>0.0998</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>43.026774</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>4526</v>
+        <v>431.13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H18" s="2">
-        <v>7694200</v>
+        <v>732921</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M18" s="2">
         <v>1380</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0.0998</v>
       </c>
       <c r="Q18" s="2">
-        <v>4526</v>
+        <v>43.026774</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>6922</v>
+        <v>4526</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H19" s="2">
-        <v>11767400</v>
+        <v>7694200</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M19" s="2">
         <v>1380</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>6922</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>1051.31</v>
+        <v>6922</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="H20" s="2">
+        <v>11767400</v>
+      </c>
       <c r="I20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M20" s="2">
         <v>1380</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2">
-        <v>0.129525</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>136.17092775</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>282.75</v>
+        <v>1051.31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="2">
-        <v>508950</v>
+        <v>86</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M21" s="2">
         <v>1380</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2">
-        <v>0.25</v>
+        <v>0.129525</v>
       </c>
       <c r="Q21" s="2">
-        <v>70.6875</v>
+        <v>136.17092775</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>5180.25</v>
+        <v>282.75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H22" s="2">
-        <v>8806425</v>
+        <v>508950</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M22" s="2">
         <v>1380</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="2">
         <v>0.25</v>
       </c>
       <c r="Q22" s="2">
-        <v>1295.0625</v>
+        <v>70.6875</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>63.5</v>
+        <v>5180.25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H23" s="2">
-        <v>107950</v>
+        <v>8806425</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M23" s="2">
         <v>1380</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="2">
         <v>0.25</v>
       </c>
       <c r="Q23" s="2">
-        <v>15.875</v>
+        <v>1295.0625</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>1343</v>
+        <v>63.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H24" s="2">
-        <v>2283100</v>
+        <v>107950</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M24" s="2">
         <v>1380</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q24" s="2">
-        <v>1343</v>
+        <v>15.875</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>10936</v>
+        <v>1343</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2283100</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M25" s="2">
         <v>1380</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>10936</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>4602</v>
+        <v>10936</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="2">
-        <v>7823400</v>
+        <v>86</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M26" s="2">
         <v>1380</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O26" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>4602</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>1256.85</v>
+        <v>4602</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H27" s="2">
-        <v>2136645</v>
+        <v>7823400</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M27" s="2">
         <v>1380</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O27" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="2">
-        <v>0.446018452803407</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>560.578292405962</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>947.66</v>
+        <v>1256.85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2136645</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M28" s="2">
         <v>1380</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O28" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P28" s="2">
-        <v>0.28721</v>
+        <v>0.446018452803407</v>
       </c>
       <c r="Q28" s="2">
-        <v>272.1774286</v>
+        <v>560.578292405962</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>13347.61</v>
+        <v>947.66</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M29" s="2">
         <v>1380</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O29" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" s="2">
         <v>0.28721</v>
       </c>
       <c r="Q29" s="2">
-        <v>3833.5670681</v>
+        <v>272.1774286</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>59.46</v>
+        <v>13347.61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M30" s="2">
         <v>1380</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O30" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" s="2">
         <v>0.28721</v>
       </c>
       <c r="Q30" s="2">
-        <v>17.0775066</v>
+        <v>3833.5670681</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>402.02</v>
+        <v>59.46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M31" s="2">
         <v>1380</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O31" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" s="2">
         <v>0.28721</v>
       </c>
       <c r="Q31" s="2">
-        <v>115.4641642</v>
+        <v>17.0775066</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>3.16</v>
+        <v>402.02</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M32" s="2">
         <v>1380</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O32" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" s="2">
         <v>0.28721</v>
       </c>
       <c r="Q32" s="2">
-        <v>0.9075836</v>
+        <v>115.4641642</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>205.02</v>
+        <v>3.16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M33" s="2">
         <v>1380</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O33" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2">
         <v>0.28721</v>
       </c>
       <c r="Q33" s="2">
-        <v>58.8837942</v>
+        <v>0.9075836</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="2">
-        <v>846.08</v>
+        <v>205.02</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M34" s="2">
         <v>1380</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O34" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P34" s="2">
         <v>0.28721</v>
       </c>
       <c r="Q34" s="2">
-        <v>243.0026368</v>
+        <v>58.8837942</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2">
-        <v>247.42</v>
+        <v>846.08</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="2">
-        <v>2889803</v>
+        <v>85</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M35" s="2">
         <v>1380</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O35" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P35" s="2">
-        <v>0.0428178420651948</v>
+        <v>0.28721</v>
       </c>
       <c r="Q35" s="2">
-        <v>10.5939904837705</v>
+        <v>243.0026368</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2">
-        <v>262.99</v>
+        <v>247.42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2889803</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M36" s="2">
         <v>1380</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O36" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P36" s="2">
-        <v>0.28721</v>
+        <v>0.0428178420651948</v>
       </c>
       <c r="Q36" s="2">
-        <v>75.5333579</v>
+        <v>10.5939904837705</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2">
-        <v>309.6</v>
+        <v>262.99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M37" s="2">
         <v>1380</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O37" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P37" s="2">
-        <v>1</v>
+        <v>0.28721</v>
       </c>
       <c r="Q37" s="2">
-        <v>309.6</v>
+        <v>75.5333579</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="2">
-        <v>66.07</v>
+        <v>309.6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="2">
-        <v>79266</v>
+        <v>85</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M38" s="2">
         <v>1380</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O38" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P38" s="2">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="2">
-        <v>22.0233333333333</v>
+        <v>309.6</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="2">
+        <v>66.07</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="2">
+        <v>79266</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O39" s="2">
+        <v>51</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>22.0233333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2">
         <v>97</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="2">
         <v>53200</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O39" s="2">
+      <c r="I40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O40" s="2">
         <v>52</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P40" s="2">
         <v>1</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q40" s="2">
         <v>97</v>
       </c>
     </row>
@@ -2844,7 +2909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2852,336 +2917,357 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>68223</v>
+      <c r="G2" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>119713</v>
+        <v>68223</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1424799</v>
+        <v>119713</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>6448795</v>
+        <v>1424799</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>434959</v>
+        <v>6448795</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>19131</v>
+        <v>434959</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>5367</v>
+        <v>19131</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="2">
-        <v>71286</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>2091673.81</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="F10" s="2">
+        <v>71286</v>
+      </c>
       <c r="G10" s="2">
-        <v>1045488</v>
+        <v>2091673.81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>135782</v>
+        <v>1045488</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>221620</v>
+        <v>135782</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>352631</v>
+        <v>221620</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>89</v>
+        <v>352631</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>56424</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
+        <v>56424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>292997</v>
       </c>
     </row>
@@ -3192,7 +3278,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3206,13 +3292,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3241,221 +3327,265 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
-        <v>4584</v>
+        <v>7508</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
-        <v>45840</v>
+        <v>75080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L2" s="2">
         <v>1380</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N2" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2">
-        <v>5849</v>
+        <v>4584</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2">
-        <v>58490</v>
+        <v>45840</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2">
         <v>1380</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2">
-        <v>15760</v>
+        <v>5849</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
-        <v>157600</v>
+        <v>58490</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2">
         <v>1380</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2">
-        <v>331</v>
+        <v>15760</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2">
-        <v>3310</v>
+        <v>157600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L5" s="2">
         <v>1380</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N5" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2">
-        <v>30000</v>
+        <v>331</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2">
+        <v>3310</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1380</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2">
         <v>300000</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1380</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="H7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1380</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2">
         <v>104</v>
       </c>
     </row>
@@ -3466,7 +3596,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3474,41 +3604,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>129</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>130</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3517,6 +3661,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5700000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5700000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3526,78 +3749,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1">
-        <v>5700000</v>
+        <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5000000</v>
+        <v>131</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -306,61 +306,67 @@
     <t>tmpf6571</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
+    <t>臺灣新光商業銀行</t>
+  </si>
+  <si>
+    <t>台中市第二信用合作社</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>三信商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行西屯分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>2902</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行</t>
-  </si>
-  <si>
-    <t>台中市第二信用合作社</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>三信商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行西屯分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台灣卜蜂企業股份有限公司</t>
@@ -2909,13 +2915,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
@@ -2926,56 +2932,116 @@
         <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>2902</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>68223</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>78</v>
       </c>
@@ -2983,20 +3049,40 @@
         <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>119713</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>79</v>
       </c>
@@ -3004,20 +3090,40 @@
         <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1424799</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -3025,20 +3131,40 @@
         <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>6448795</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>81</v>
       </c>
@@ -3046,20 +3172,40 @@
         <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>434959</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>82</v>
       </c>
@@ -3067,20 +3213,40 @@
         <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>19131</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>83</v>
       </c>
@@ -3088,20 +3254,40 @@
         <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>5367</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>84</v>
       </c>
@@ -3109,22 +3295,40 @@
         <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="2">
-        <v>71286</v>
-      </c>
-      <c r="G10" s="2">
         <v>2091673.81</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>86</v>
       </c>
@@ -3132,20 +3336,40 @@
         <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>1045488</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>87</v>
       </c>
@@ -3153,20 +3377,40 @@
         <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>135782</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>88</v>
       </c>
@@ -3174,20 +3418,40 @@
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>221620</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>89</v>
       </c>
@@ -3195,20 +3459,40 @@
         <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>352631</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>90</v>
       </c>
@@ -3216,20 +3500,40 @@
         <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>91</v>
       </c>
@@ -3237,20 +3541,40 @@
         <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>56424</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>92</v>
       </c>
@@ -3258,17 +3582,37 @@
         <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>292997</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3292,13 +3636,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3330,7 +3674,7 @@
         <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
@@ -3342,13 +3686,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2">
         <v>75080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>92</v>
@@ -3374,7 +3718,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>69</v>
@@ -3386,13 +3730,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2">
         <v>45840</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>92</v>
@@ -3418,7 +3762,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>69</v>
@@ -3430,13 +3774,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2">
         <v>58490</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>92</v>
@@ -3462,7 +3806,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>68</v>
@@ -3474,13 +3818,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2">
         <v>157600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>92</v>
@@ -3506,7 +3850,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>68</v>
@@ -3518,13 +3862,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G6" s="2">
         <v>3310</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>92</v>
@@ -3550,7 +3894,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>68</v>
@@ -3562,13 +3906,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2">
         <v>300000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>92</v>
@@ -3604,10 +3948,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>69</v>
@@ -3618,10 +3962,10 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>69</v>
@@ -3632,10 +3976,10 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>69</v>
@@ -3646,10 +3990,10 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>69</v>
@@ -3670,22 +4014,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1">
         <v>5700000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3693,22 +4037,22 @@
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2">
         <v>5700000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3716,22 +4060,22 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2">
         <v>5000000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3752,19 +4096,19 @@
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3775,19 +4119,19 @@
         <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -390,6 +390,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
@@ -402,21 +405,36 @@
     <t>新世紀遞延年金</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押借款</t>
   </si>
   <si>
     <t>合作金庫中港分行臺中市西屯區文心路</t>
   </si>
   <si>
+    <t>台中市第二信用合作社南屯分社臺中市南屯區五權西路</t>
+  </si>
+  <si>
     <t>97年11月25日</t>
   </si>
   <si>
-    <t>台中市第二信用合作社南屯分社臺中市南屯區五權西路</t>
-  </si>
-  <si>
     <t>98年11月29日</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>聯內實業股份有限公司</t>
   </si>
   <si>
@@ -427,6 +445,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3940,63 +3961,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1380</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1380</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1380</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="2">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4006,76 +4111,139 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5700000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>140</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="2">
+        <v>132</v>
+      </c>
+      <c r="E2" s="2">
         <v>5700000</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1380</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="2">
+        <v>133</v>
+      </c>
+      <c r="E3" s="2">
         <v>5000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>131</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1380</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4085,33 +4253,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3000000</v>
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>146</v>
       </c>
@@ -4119,19 +4308,40 @@
         <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1380</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="2">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
+++ b/legislator/property/output/normal/蔡錦隆_2012-04-30_財產申報表_tmpf6571.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="存款" sheetId="2" r:id="rId2"/>
-    <sheet name="股票" sheetId="3" r:id="rId3"/>
-    <sheet name="保險" sheetId="4" r:id="rId4"/>
-    <sheet name="債務" sheetId="5" r:id="rId5"/>
-    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
+    <sheet name="建物" sheetId="2" r:id="rId2"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -174,7 +175,118 @@
     <t>臺中市龍井區遊圜北段01140000地號</t>
   </si>
   <si>
-    <t>臺中市西屯區民安段00448000建號</t>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>2616分之725</t>
+  </si>
+  <si>
+    <t>2616分之766</t>
+  </si>
+  <si>
+    <t>14分之1</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>5400分之45</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>10000分之998</t>
+  </si>
+  <si>
+    <t>400000分之51810</t>
+  </si>
+  <si>
+    <t>281800分之125688</t>
+  </si>
+  <si>
+    <t>300000分之86163</t>
+  </si>
+  <si>
+    <t>577960分之24747</t>
+  </si>
+  <si>
+    <t>蔡錦隆</t>
+  </si>
+  <si>
+    <t>盧素蘭</t>
+  </si>
+  <si>
+    <t>蔡錦陸</t>
+  </si>
+  <si>
+    <t>94年09月28闩</t>
+  </si>
+  <si>
+    <t>77年05月17闩</t>
+  </si>
+  <si>
+    <t>84年05月11曰</t>
+  </si>
+  <si>
+    <t>84年07月06日</t>
+  </si>
+  <si>
+    <t>94年07月26日</t>
+  </si>
+  <si>
+    <t>94年07月26R</t>
+  </si>
+  <si>
+    <t>78年02月23日</t>
+  </si>
+  <si>
+    <t>99年11月11曰</t>
+  </si>
+  <si>
+    <t>100年05月31曰</t>
+  </si>
+  <si>
+    <t>100年05月3ia</t>
+  </si>
+  <si>
+    <t>80年09月16曰</t>
+  </si>
+  <si>
+    <t>80年09月16日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝石年)</t>
+  </si>
+  <si>
+    <t>1892358</t>
+  </si>
+  <si>
+    <t>18591200</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmpf6571</t>
   </si>
   <si>
     <t>臺中市西屯區廣安段00061000建號</t>
@@ -183,127 +295,13 @@
     <t>臺中市西屯區</t>
   </si>
   <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>2616分之725</t>
-  </si>
-  <si>
-    <t>2616分之766</t>
-  </si>
-  <si>
-    <t>14分之1</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>5400分之45</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>10000分之998</t>
-  </si>
-  <si>
-    <t>400000分之51810</t>
-  </si>
-  <si>
-    <t>281800分之125688</t>
-  </si>
-  <si>
-    <t>300000分之86163</t>
-  </si>
-  <si>
-    <t>577960分之24747</t>
-  </si>
-  <si>
     <t>3分之1</t>
   </si>
   <si>
-    <t>蔡錦隆</t>
-  </si>
-  <si>
-    <t>盧素蘭</t>
-  </si>
-  <si>
-    <t>蔡錦陸</t>
-  </si>
-  <si>
-    <t>94年09月28闩</t>
-  </si>
-  <si>
-    <t>77年05月17闩</t>
-  </si>
-  <si>
-    <t>84年05月11曰</t>
-  </si>
-  <si>
-    <t>84年07月06日</t>
-  </si>
-  <si>
-    <t>94年07月26日</t>
-  </si>
-  <si>
-    <t>94年07月26R</t>
-  </si>
-  <si>
-    <t>78年02月23日</t>
-  </si>
-  <si>
-    <t>99年11月11曰</t>
-  </si>
-  <si>
-    <t>100年05月31曰</t>
-  </si>
-  <si>
-    <t>100年05月3ia</t>
-  </si>
-  <si>
-    <t>80年09月16曰</t>
-  </si>
-  <si>
-    <t>80年09月16日</t>
-  </si>
-  <si>
-    <t>77年10月28曰</t>
-  </si>
-  <si>
     <t>100年07月05曰</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝石年)</t>
-  </si>
-  <si>
-    <t>1892358</t>
-  </si>
-  <si>
-    <t>18591200</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmpf6571</t>
+    <t>building</t>
   </si>
   <si>
     <t>bank</t>
@@ -806,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,37 +871,37 @@
         <v>48.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M2" s="2">
         <v>1380</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O2" s="2">
         <v>14</v>
@@ -926,37 +924,37 @@
         <v>2095.72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M3" s="2">
         <v>1380</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2">
         <v>15</v>
@@ -979,37 +977,37 @@
         <v>87.96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M4" s="2">
         <v>1380</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O4" s="2">
         <v>16</v>
@@ -1032,37 +1030,37 @@
         <v>435.14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M5" s="2">
         <v>1380</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O5" s="2">
         <v>17</v>
@@ -1085,37 +1083,37 @@
         <v>23.38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M6" s="2">
         <v>1380</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O6" s="2">
         <v>18</v>
@@ -1138,37 +1136,37 @@
         <v>35.32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M7" s="2">
         <v>1380</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2">
         <v>19</v>
@@ -1191,37 +1189,37 @@
         <v>244.35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M8" s="2">
         <v>1380</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O8" s="2">
         <v>20</v>
@@ -1244,37 +1242,37 @@
         <v>64.02</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2">
         <v>1380</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O9" s="2">
         <v>21</v>
@@ -1297,37 +1295,37 @@
         <v>139.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2">
         <v>1380</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O10" s="2">
         <v>22</v>
@@ -1350,37 +1348,37 @@
         <v>3520.49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H11" s="2">
         <v>205359</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M11" s="2">
         <v>1380</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O11" s="2">
         <v>23</v>
@@ -1403,37 +1401,37 @@
         <v>5779.6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2">
         <v>2889803</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M12" s="2">
         <v>1380</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O12" s="2">
         <v>24</v>
@@ -1456,37 +1454,37 @@
         <v>542.29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H13" s="2">
         <v>271145</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M13" s="2">
         <v>1380</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O13" s="2">
         <v>25</v>
@@ -1509,37 +1507,37 @@
         <v>1806</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2">
         <v>3250800</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M14" s="2">
         <v>1380</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O14" s="2">
         <v>26</v>
@@ -1562,37 +1560,37 @@
         <v>9963</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="H15" s="2">
         <v>16937100</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M15" s="2">
         <v>1380</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O15" s="2">
         <v>27</v>
@@ -1615,37 +1613,37 @@
         <v>5252</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2">
         <v>8928400</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M16" s="2">
         <v>1380</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O16" s="2">
         <v>28</v>
@@ -1668,37 +1666,37 @@
         <v>2760</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2">
         <v>4692000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M17" s="2">
         <v>1380</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O17" s="2">
         <v>29</v>
@@ -1721,37 +1719,37 @@
         <v>431.13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2">
         <v>732921</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M18" s="2">
         <v>1380</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O18" s="2">
         <v>30</v>
@@ -1774,37 +1772,37 @@
         <v>4526</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2">
         <v>7694200</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M19" s="2">
         <v>1380</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O19" s="2">
         <v>31</v>
@@ -1827,37 +1825,37 @@
         <v>6922</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2">
         <v>11767400</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M20" s="2">
         <v>1380</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O20" s="2">
         <v>32</v>
@@ -1880,37 +1878,37 @@
         <v>1051.31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M21" s="2">
         <v>1380</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O21" s="2">
         <v>33</v>
@@ -1933,37 +1931,37 @@
         <v>282.75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2">
         <v>508950</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M22" s="2">
         <v>1380</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O22" s="2">
         <v>34</v>
@@ -1986,37 +1984,37 @@
         <v>5180.25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H23" s="2">
         <v>8806425</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M23" s="2">
         <v>1380</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O23" s="2">
         <v>35</v>
@@ -2039,37 +2037,37 @@
         <v>63.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H24" s="2">
         <v>107950</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M24" s="2">
         <v>1380</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O24" s="2">
         <v>36</v>
@@ -2092,37 +2090,37 @@
         <v>1343</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2">
         <v>2283100</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M25" s="2">
         <v>1380</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O25" s="2">
         <v>37</v>
@@ -2145,37 +2143,37 @@
         <v>10936</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M26" s="2">
         <v>1380</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O26" s="2">
         <v>38</v>
@@ -2198,37 +2196,37 @@
         <v>4602</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H27" s="2">
         <v>7823400</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M27" s="2">
         <v>1380</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O27" s="2">
         <v>39</v>
@@ -2251,37 +2249,37 @@
         <v>1256.85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2">
         <v>2136645</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M28" s="2">
         <v>1380</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O28" s="2">
         <v>40</v>
@@ -2304,37 +2302,37 @@
         <v>947.66</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J29" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M29" s="2">
         <v>1380</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O29" s="2">
         <v>41</v>
@@ -2357,37 +2355,37 @@
         <v>13347.61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M30" s="2">
         <v>1380</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O30" s="2">
         <v>42</v>
@@ -2410,37 +2408,37 @@
         <v>59.46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J31" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M31" s="2">
         <v>1380</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O31" s="2">
         <v>43</v>
@@ -2463,37 +2461,37 @@
         <v>402.02</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M32" s="2">
         <v>1380</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O32" s="2">
         <v>44</v>
@@ -2516,37 +2514,37 @@
         <v>3.16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J33" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M33" s="2">
         <v>1380</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O33" s="2">
         <v>45</v>
@@ -2569,37 +2567,37 @@
         <v>205.02</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J34" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M34" s="2">
         <v>1380</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O34" s="2">
         <v>46</v>
@@ -2622,37 +2620,37 @@
         <v>846.08</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J35" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M35" s="2">
         <v>1380</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O35" s="2">
         <v>47</v>
@@ -2675,37 +2673,37 @@
         <v>247.42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H36" s="2">
         <v>2889803</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M36" s="2">
         <v>1380</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O36" s="2">
         <v>48</v>
@@ -2728,37 +2726,37 @@
         <v>262.99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J37" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M37" s="2">
         <v>1380</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O37" s="2">
         <v>49</v>
@@ -2768,165 +2766,6 @@
       </c>
       <c r="Q37" s="2">
         <v>75.5333579</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1">
-        <v>50</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2">
-        <v>309.6</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O38" s="2">
-        <v>50</v>
-      </c>
-      <c r="P38" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>309.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1">
-        <v>51</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="2">
-        <v>66.07</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="2">
-        <v>79266</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O39" s="2">
-        <v>51</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>22.0233333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1">
-        <v>52</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="2">
-        <v>97</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H40" s="2">
-        <v>53200</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1380</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O40" s="2">
-        <v>52</v>
-      </c>
-      <c r="P40" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2935,6 +2774,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2">
+        <v>66.07</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2">
+        <v>79266</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="2">
+        <v>53</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>22.0233333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="2">
+        <v>53200</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1380</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2">
+        <v>54</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -2944,13 +2952,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2982,658 +2990,658 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2">
         <v>2902</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2" s="2">
         <v>1380</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M2" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2">
         <v>68223</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2">
         <v>1380</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2">
         <v>119713</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2">
         <v>1380</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2">
         <v>1424799</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2">
         <v>1380</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2">
         <v>6448795</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2">
         <v>1380</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M6" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2">
         <v>434959</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2">
         <v>1380</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2">
         <v>19131</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2">
         <v>1380</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M8" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2">
         <v>5367</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2">
         <v>1380</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M9" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2">
         <v>2091673.81</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2">
         <v>1380</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M10" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2">
         <v>1045488</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2">
         <v>1380</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M11" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2">
         <v>135782</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2">
         <v>1380</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2">
         <v>221620</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2">
         <v>1380</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M13" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2">
         <v>352631</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2">
         <v>1380</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M14" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F15" s="2">
         <v>89</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="2">
         <v>92</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1380</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2">
         <v>56424</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="2">
         <v>93</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1380</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17" s="2">
         <v>292997</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2">
         <v>1380</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="2">
         <v>94</v>
-      </c>
-      <c r="M17" s="2">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3641,7 +3649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
@@ -3657,13 +3665,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3692,13 +3700,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2">
         <v>7508</v>
@@ -3707,42 +3715,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2">
         <v>75080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2">
         <v>1380</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2">
         <v>4584</v>
@@ -3751,42 +3759,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2">
         <v>45840</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2">
         <v>1380</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2">
         <v>5849</v>
@@ -3795,42 +3803,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2">
         <v>58490</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2">
         <v>1380</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>15760</v>
@@ -3839,42 +3847,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2">
         <v>157600</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2">
         <v>1380</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2">
         <v>331</v>
@@ -3883,42 +3891,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2">
         <v>3310</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L6" s="2">
         <v>1380</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>30000</v>
@@ -3927,31 +3935,31 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="2">
         <v>300000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L7" s="2">
         <v>1380</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3959,7 +3967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3969,7 +3977,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4001,107 +4009,107 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2">
         <v>1380</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2">
         <v>1380</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2">
         <v>1380</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4109,7 +4117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -4119,10 +4127,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -4160,90 +4168,90 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E2" s="2">
         <v>5700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2">
         <v>1380</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L3" s="2">
         <v>1380</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +4259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -4264,10 +4272,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -4302,46 +4310,46 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2">
         <v>1380</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
